--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1968358.328095062</v>
+        <v>-1970356.001107907</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>233.1472442404323</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>109.5132631020576</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>299.3768841986385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>33.40923861026226</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>195.5259221771829</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.0044783406141</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>261.7197106254975</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>321.8364024963325</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.16758029820794</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>15.67129869336565</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>311.5591535780503</v>
+        <v>292.112582212238</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>43.16288100277495</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>161.2620823710468</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>32.58786218362066</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.93461149148743</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.169552137146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>88.08354545359801</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273959</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>118.0752526226201</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>8.40168375105409</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>182.5749925225715</v>
       </c>
       <c r="U22" t="n">
-        <v>142.7197497247937</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539634</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T25" t="n">
         <v>153.4156709287486</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169296</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857224</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463105</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.8324622741521</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1188.069752800613</v>
+        <v>1636.949183112183</v>
       </c>
       <c r="C2" t="n">
-        <v>1188.069752800613</v>
+        <v>1267.986666171771</v>
       </c>
       <c r="D2" t="n">
-        <v>1188.069752800613</v>
+        <v>909.7209675650208</v>
       </c>
       <c r="E2" t="n">
-        <v>1188.069752800613</v>
+        <v>909.7209675650208</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>909.7209675650208</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>491.7571594632076</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>164.5624394992105</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.808924840546</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.808924840546</v>
+        <v>2023.549023176305</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.669592864734</v>
+        <v>2023.549023176305</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="V4" t="n">
-        <v>569.538602044198</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W4" t="n">
-        <v>569.538602044198</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X4" t="n">
-        <v>569.538602044198</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.75737613363</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>889.7361099932471</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1546.896708109442</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1156.75737613363</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.1482364572798</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="C7" t="n">
-        <v>261.1482364572798</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572798</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572798</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.1482364572798</v>
+        <v>69.77257646012774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2163.808208254881</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="W8" t="n">
-        <v>2163.808208254881</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2163.808208254881</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.668876279069</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,31 +4899,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>97.54185152013713</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.54185152013713</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.54185152013713</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.54185152013713</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="11">
@@ -5039,19 +5039,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>326.249275617007</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>940.1463453738957</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1465.999238049195</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="X13" t="n">
-        <v>612.8127116841194</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.0201325405893</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>776.3630235686835</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>486.9458535317228</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>486.9458535317228</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>229.0333923118348</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>378.1030765138946</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>644.1080300429513</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C19" t="n">
-        <v>524.8400981009108</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1490.429721314413</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1490.429721314413</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>1201.301082527971</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429513</v>
+        <v>946.6165943220844</v>
       </c>
       <c r="W19" t="n">
-        <v>644.1080300429513</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="X19" t="n">
-        <v>644.1080300429513</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="Y19" t="n">
-        <v>644.1080300429513</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>1114.577076107221</v>
       </c>
       <c r="U22" t="n">
-        <v>4405.698096133293</v>
+        <v>825.448437320779</v>
       </c>
       <c r="V22" t="n">
-        <v>4151.013607927406</v>
+        <v>825.448437320779</v>
       </c>
       <c r="W22" t="n">
-        <v>3861.596437890445</v>
+        <v>825.448437320779</v>
       </c>
       <c r="X22" t="n">
-        <v>3861.596437890445</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746915</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,28 +6054,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>953.6472828615134</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6148,10 +6148,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6160,13 +6160,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1024.771599890052</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3481.79397174047</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>3381.677879852604</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>3221.288328937956</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>3043.863241839948</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>2962.265324427933</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>2999.384087782175</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N28" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O28" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P28" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T28" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>3746.594833634157</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>3594.622345530668</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4595.498205900218</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2410.070939158951</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860497</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,19 +6926,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,13 +6947,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>391.6040140015124</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>638.3691419079764</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010312</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,13 +7157,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,22 +7175,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2982.951835641176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2722.685770247095</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2969.450898153559</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3276.77103143352</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>38.86002301949873</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>91.23759968302164</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.7842838544522</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>93.88676507992591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>32.78140656352349</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>104.8749102765748</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>213.2603911806607</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>199.6230805871076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>173.7288015012792</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>42.41805314280368</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>29.50918328090134</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>95.13316498321393</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>253.6494902149567</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>142.7750438975497</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>20.96809118668196</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.5011078984968</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>49.17156847600775</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.5191262325492</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>38.97256853581777</v>
       </c>
       <c r="U22" t="n">
-        <v>143.5176026737837</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564043</v>
+        <v>36783.84869564042</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="D2" t="n">
         <v>41052.08849321414</v>
       </c>
-      <c r="D2" t="n">
-        <v>41052.08849321415</v>
-      </c>
       <c r="E2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="F2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="G2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377086</v>
       </c>
       <c r="H2" t="n">
-        <v>39102.90597377088</v>
+        <v>39102.90597377089</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321423</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.08849321423</v>
+      </c>
+      <c r="K2" t="n">
         <v>41052.08849321424</v>
       </c>
-      <c r="K2" t="n">
-        <v>41052.08849321425</v>
-      </c>
       <c r="L2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="N2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321418</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99193.63377422308</v>
+        <v>99193.63377422311</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26427,37 +26427,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007507</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007547</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="K4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732792</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26497,13 +26497,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-735236.7423565366</v>
+        <v>-735450.1543464153</v>
       </c>
       <c r="C6" t="n">
         <v>-189724.0382861161</v>
@@ -26528,16 +26528,16 @@
         <v>-189724.0382861161</v>
       </c>
       <c r="E6" t="n">
-        <v>-585961.1881078493</v>
+        <v>-586058.6472338215</v>
       </c>
       <c r="F6" t="n">
-        <v>-60801.15163095326</v>
+        <v>-60898.6107569254</v>
       </c>
       <c r="G6" t="n">
-        <v>-60801.15163095329</v>
+        <v>-60898.61075692547</v>
       </c>
       <c r="H6" t="n">
-        <v>-60801.1516309533</v>
+        <v>-60898.61075692539</v>
       </c>
       <c r="I6" t="n">
         <v>-141504.0483278516</v>
@@ -26546,22 +26546,22 @@
         <v>-263421.7554167321</v>
       </c>
       <c r="K6" t="n">
-        <v>-86998.53622413911</v>
+        <v>-86998.5362241391</v>
       </c>
       <c r="L6" t="n">
+        <v>-86998.5362241392</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-221799.5514579764</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-141504.0483278516</v>
+      </c>
+      <c r="O6" t="n">
         <v>-86998.53622413921</v>
       </c>
-      <c r="M6" t="n">
-        <v>-221799.5514579763</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-141504.0483278517</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-86998.53622413917</v>
-      </c>
       <c r="P6" t="n">
-        <v>-86998.53622413918</v>
+        <v>-86998.53622413916</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26747,16 +26747,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>49.86408451877452</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>336.3218620682068</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>145.1563351162139</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>47.89469818213649</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>78.44789272000442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>140.4995901484295</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>16.19310489208459</v>
+        <v>35.63967625789695</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>91.80274078956327</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>64.44757301799038</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>189.435461607438</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>133.1477786379283</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560242</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>404.3111421303921</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>282.0391115195479</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L25" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>353.881855992819</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>595.5275127043998</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>255.450348864514</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>462.5180961366851</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>350.1985191750468</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
